--- a/A4/database-09-feb-2018/db-09-feb-2018/converted/DD.xlsx
+++ b/A4/database-09-feb-2018/db-09-feb-2018/converted/DD.xlsx
@@ -1,841 +1,860 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5490" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Page 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Page 3" sheetId="3" r:id="rId4"/>
-    <sheet name="Page 4" sheetId="4" r:id="rId5"/>
-    <sheet name="Page 5" sheetId="5" r:id="rId6"/>
-    <sheet name="Page 6" sheetId="6" r:id="rId7"/>
-    <sheet name="Page 7" sheetId="7" r:id="rId8"/>
-    <sheet name="Page 8" sheetId="8" r:id="rId9"/>
-    <sheet name="Page 9" sheetId="9" r:id="rId10"/>
-    <sheet name="Page 10" sheetId="10" r:id="rId11"/>
-    <sheet name="Page 11" sheetId="11" r:id="rId12"/>
+    <sheet name="Page 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Page 2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Page 3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Page 4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Page 5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Page 6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Page 7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Page 8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Page 9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Page 10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Page 11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="255">
   <si>
-    <t>Faculty Timetable</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>8 - 8:55</t>
-  </si>
-  <si>
-    <t>9 - 9:55</t>
-  </si>
-  <si>
-    <t>10 - 10:55</t>
-  </si>
-  <si>
-    <t>11 - 11:55</t>
-  </si>
-  <si>
-    <t>12 - 12:55</t>
-  </si>
-  <si>
-    <t>1 - 1:55</t>
-  </si>
-  <si>
-    <t>2 - 2:55</t>
-  </si>
-  <si>
-    <t>3 - 3:55</t>
-  </si>
-  <si>
-    <t>4 - 4:55</t>
-  </si>
-  <si>
-    <t>5 - 5:55</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>DD 497 (2, 15, 16)</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Bdes 4 Studio</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>DD 521 (1, 7, 8, 9, 10)</t>
-  </si>
-  <si>
-    <t>SSI Lab</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>DD 411</t>
-  </si>
-  <si>
-    <t>DD 602</t>
-  </si>
-  <si>
-    <t>UE Lab</t>
-  </si>
-  <si>
-    <t>UB</t>
-  </si>
-  <si>
-    <t>DD 506</t>
-  </si>
-  <si>
-    <t>Mdes 1 Studio</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>DD 413 (4, 8, 10)</t>
-  </si>
-  <si>
-    <t>DD 507 (1, 2, 6, 9, 16)</t>
-  </si>
-  <si>
-    <t>AVI</t>
-  </si>
-  <si>
-    <t>DD 522 (5, 7, 13)</t>
-  </si>
-  <si>
-    <t>Mdes 2 Studio</t>
-  </si>
-  <si>
-    <t>DD 505 (4, 8, 13, 15)</t>
-  </si>
-  <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>DD 512 (3, 5, 10)</t>
-  </si>
-  <si>
-    <t>Media Lab</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>DD 216 (1, 2, 7, 8, 11, 15)</t>
-  </si>
-  <si>
-    <t>Bdes 2 Studio</t>
-  </si>
-  <si>
-    <t>DD 320M</t>
-  </si>
-  <si>
-    <t>Bdes 3 Studio</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>DD 516 (4, 8, 10)</t>
-  </si>
-  <si>
-    <t>Ergonomics Lab</t>
-  </si>
-  <si>
-    <t>DD 311 (7, 11, 14)</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>DD 112 (3, 6, 9, 13)</t>
-  </si>
-  <si>
-    <t>Seminar Room</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>DD 315 (4, 8, 13)</t>
-  </si>
-  <si>
-    <t>DD 509 (7, 11, 14)</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>DD 211</t>
-  </si>
-  <si>
-    <t>SMG</t>
-  </si>
-  <si>
-    <t>DD 212 (3, 5, 9, 14)</t>
-  </si>
-  <si>
-    <t>URS</t>
-  </si>
-  <si>
-    <t>DD 220M</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>DD 510 (4, 8, 10)</t>
-  </si>
-  <si>
-    <t>DD 312 (1, 2, 6, 9)</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DD 111 (1, 2, 5, 8, 11)</t>
-  </si>
-  <si>
-    <t>DD 214 (6)</t>
-  </si>
-  <si>
-    <t>ABH</t>
-  </si>
-  <si>
-    <t>DD 113 (4, 7, 10, 14)</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>DD 314</t>
-  </si>
-  <si>
-    <t>DD 531</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>DD 514 (3, 5, 10)</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>SHRI</t>
-  </si>
-  <si>
-    <t>DD 316 (3, 5, 10)</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>DD 215 (4, 10, 13)</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>DD 313</t>
-  </si>
-  <si>
-    <t>DD 213</t>
-  </si>
-  <si>
-    <t>Abbreviations used</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Debkumar Chakrabarti</t>
-  </si>
-  <si>
-    <t>4 - 5 Jan</t>
-  </si>
-  <si>
-    <t>Pradeep Yammiyavar</t>
-  </si>
-  <si>
-    <t>8 - 12 Jan</t>
-  </si>
-  <si>
-    <t>Ravi Mokashi Punekar</t>
-  </si>
-  <si>
-    <t>15 - 19 Jan</t>
-  </si>
-  <si>
-    <t>AKD</t>
-  </si>
-  <si>
-    <t>A K Das</t>
-  </si>
-  <si>
-    <t>22 - 26 Jan</t>
-  </si>
-  <si>
-    <t>Utpal Barua</t>
-  </si>
-  <si>
-    <t>29 Jan - 2 Feb</t>
-  </si>
-  <si>
-    <t>Avinash Shende</t>
-  </si>
-  <si>
-    <t>5 - 9 Feb</t>
-  </si>
-  <si>
-    <t>Manoj Majhi</t>
-  </si>
-  <si>
-    <t>12 - 17 Feb</t>
-  </si>
-  <si>
-    <t>Mriganka Madhukaillya</t>
-  </si>
-  <si>
-    <t>19 - 23 Feb</t>
-  </si>
-  <si>
-    <t>Shareka Iqbal</t>
-  </si>
-  <si>
-    <t>Midsem</t>
-  </si>
-  <si>
-    <t>Keyur Sorathia</t>
-  </si>
-  <si>
-    <t>5 - 9 Mar</t>
-  </si>
-  <si>
-    <t>Sougata Karmakar</t>
-  </si>
-  <si>
-    <t>12 - 17 Mar</t>
-  </si>
-  <si>
-    <t>Uday Kumar</t>
-  </si>
-  <si>
-    <t>19 - 23 Mar</t>
-  </si>
-  <si>
-    <t>Sharmistha Banerjee</t>
-  </si>
-  <si>
-    <t>24 Mar - 1 Apr</t>
-  </si>
-  <si>
-    <t>Charu Monga</t>
-  </si>
-  <si>
-    <t>2 - 6 Apr</t>
-  </si>
-  <si>
-    <t>Abhishek Singh</t>
-  </si>
-  <si>
-    <t>9 - 13 Apr</t>
-  </si>
-  <si>
-    <t>Swati Pal</t>
-  </si>
-  <si>
-    <t>16 - 20 Apr</t>
-  </si>
-  <si>
-    <t>Pankaj Upadhyay</t>
-  </si>
-  <si>
-    <t>23 - 27 Apr</t>
-  </si>
-  <si>
-    <t>Sheetal Madhav Gokhale</t>
-  </si>
-  <si>
-    <t>Endsem</t>
-  </si>
-  <si>
-    <t>Abhishek Shrivastava</t>
-  </si>
-  <si>
-    <t>Pratul Kalita</t>
-  </si>
-  <si>
-    <t>Supradip Das</t>
-  </si>
-  <si>
-    <t>Urmi Ravindra Salve</t>
-  </si>
-  <si>
-    <t>Debayan Dhar</t>
-  </si>
-  <si>
-    <t>Nikhileswar Baruah</t>
-  </si>
-  <si>
-    <t>BDes 2 Timetable</t>
-  </si>
-  <si>
-    <t>ME 101</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>CS 101</t>
-  </si>
-  <si>
-    <t>EE 102</t>
-  </si>
-  <si>
-    <t>CS 110</t>
-  </si>
-  <si>
-    <t>ME 101 (T)</t>
-  </si>
-  <si>
-    <t>Studio</t>
-  </si>
-  <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>24 Mar - 1</t>
-  </si>
-  <si>
-    <t>No class</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>29 Jan - 2</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Prayukti</t>
-  </si>
-  <si>
-    <t>Midsem (24 Feb - 4 Mar)</t>
-  </si>
-  <si>
-    <t>Endsem (29 Apr, 5 May)</t>
-  </si>
-  <si>
-    <t>Hours as</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>Departmental Courses</t>
-  </si>
-  <si>
-    <t>Instructor</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>per LTP</t>
-  </si>
-  <si>
-    <t>DD 111</t>
-  </si>
-  <si>
-    <t>1, 2, 5, 8, 11</t>
-  </si>
-  <si>
-    <t>DD 111 Form, Order and Structure</t>
-  </si>
-  <si>
-    <t>DD 112</t>
-  </si>
-  <si>
-    <t>3, 6, 9, 13</t>
-  </si>
-  <si>
-    <t>DD 112 Principles of Visual Design</t>
-  </si>
-  <si>
-    <t>DD 113</t>
-  </si>
-  <si>
-    <t>4, 7, 10, 14</t>
-  </si>
-  <si>
-    <t>DD 113 Visualization and Illustrations</t>
-  </si>
-  <si>
-    <t>BDes 4 Timetable</t>
-  </si>
-  <si>
-    <t>HSS</t>
-  </si>
-  <si>
-    <t>5 - 10 Feb</t>
-  </si>
-  <si>
-    <t>DD 212</t>
-  </si>
-  <si>
-    <t>3, 5, 9, 14</t>
-  </si>
-  <si>
-    <t>DD 211 User Research Methods</t>
-  </si>
-  <si>
-    <t>DD 214</t>
-  </si>
-  <si>
-    <t>6*</t>
-  </si>
-  <si>
-    <t>DD 212 Visual Narratives</t>
-  </si>
-  <si>
-    <t>DD 215</t>
-  </si>
-  <si>
-    <t>4, 10, 13</t>
-  </si>
-  <si>
-    <t>DD 213 Art and Aesthetics in Design</t>
-  </si>
-  <si>
-    <t>1, 2, 7, 8, 11,</t>
-  </si>
-  <si>
-    <t>SD + SHRI</t>
-  </si>
-  <si>
-    <t>DD 216</t>
-  </si>
-  <si>
-    <t>DD214 Design Workshop</t>
-  </si>
-  <si>
-    <t>+ PU</t>
-  </si>
-  <si>
-    <t>DD 215 Cognitive Ergonomics</t>
-  </si>
-  <si>
-    <t>* An extra class on Saturday, 10th Feb will be needed to</t>
-  </si>
-  <si>
-    <t>DD 216 Design Project I</t>
-  </si>
-  <si>
-    <t>complete the number of hours.</t>
-  </si>
-  <si>
-    <t>DD 220 M Introduction to Ergonomics</t>
-  </si>
-  <si>
-    <t>BDes 6 Timetable</t>
-  </si>
-  <si>
-    <t>DD 311</t>
-  </si>
-  <si>
-    <t>7, 11, 14</t>
-  </si>
-  <si>
-    <t>DD 311 Applied Ergonomics</t>
-  </si>
-  <si>
-    <t>1, 2, 6, 9</t>
-  </si>
-  <si>
-    <t>DD 312 Design Project II ( Systems</t>
-  </si>
-  <si>
-    <t>DD 312</t>
-  </si>
-  <si>
-    <t>Approach to Design)</t>
-  </si>
-  <si>
-    <t>DD 315</t>
-  </si>
-  <si>
-    <t>4,8,13</t>
-  </si>
-  <si>
-    <t>DD 313 Art, Design and Society</t>
-  </si>
-  <si>
-    <t>DD 316/ 514</t>
-  </si>
-  <si>
-    <t>3, 5, 10</t>
-  </si>
-  <si>
-    <t>DD 314 Animation Fundamentals</t>
-  </si>
-  <si>
-    <t>DD 315 Design Studio- V (Tangible</t>
-  </si>
-  <si>
-    <t>Interfaces)</t>
-  </si>
-  <si>
-    <t>DD 320M Product Planning and Strategy</t>
-  </si>
-  <si>
-    <t>Departmental Elective</t>
-  </si>
-  <si>
-    <t>DD 316 Instructional Design and</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>DD 514 Colloborative Design Methods for</t>
-  </si>
-  <si>
-    <t>New Product Development</t>
-  </si>
-  <si>
-    <t>BDes 8 Timetable</t>
-  </si>
-  <si>
-    <t>Module/ DD 602</t>
-  </si>
-  <si>
-    <t>DD 411 Design Management and</t>
-  </si>
-  <si>
-    <t>DD 497</t>
-  </si>
-  <si>
-    <t>2, 15, 16</t>
-  </si>
-  <si>
-    <t>Professional Practice</t>
-  </si>
-  <si>
-    <t>1, 7, 8, 9, 10</t>
-  </si>
-  <si>
-    <t>RMP + SMG</t>
-  </si>
-  <si>
-    <t>DD 521</t>
-  </si>
-  <si>
-    <t>DD 497 Design Exhibition Project</t>
-  </si>
-  <si>
-    <t>+ AVI</t>
-  </si>
-  <si>
-    <t>DD 413/</t>
-  </si>
-  <si>
-    <t>4, 8, 10</t>
-  </si>
-  <si>
-    <t>DD 499 Design Project- IV</t>
-  </si>
-  <si>
-    <t>SB + DD</t>
-  </si>
-  <si>
-    <t>510/ 516</t>
-  </si>
-  <si>
-    <t>DD 413 Design Seminar</t>
-  </si>
-  <si>
-    <t>DD 510 Creativity, Innovation and Design</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>DD 516 Digital Human Modelling and</t>
-  </si>
-  <si>
-    <t>Simulation in Product Design</t>
-  </si>
-  <si>
-    <t>RMP, SB,</t>
-  </si>
-  <si>
-    <t>DD 521 System Design for Sustainability</t>
-  </si>
-  <si>
-    <t>DD 602 System Analysis and Information</t>
-  </si>
-  <si>
-    <t>DD + PY</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>MDes 2 Timetable</t>
-  </si>
-  <si>
-    <t>DD 505</t>
-  </si>
-  <si>
-    <t>4, 8, 13, 15</t>
-  </si>
-  <si>
-    <t>DD 505 Form Studies</t>
-  </si>
-  <si>
-    <t>DD 507</t>
-  </si>
-  <si>
-    <t>1, 2, 6, 9, 16</t>
-  </si>
-  <si>
-    <t>DD 506 Graphic Design</t>
-  </si>
-  <si>
-    <t>UB + UK</t>
-  </si>
-  <si>
-    <t>DD 509</t>
-  </si>
-  <si>
-    <t>DD 507 Design Project</t>
-  </si>
-  <si>
-    <t>DD 514</t>
-  </si>
-  <si>
-    <t>DD 509 Interaction Design</t>
-  </si>
-  <si>
-    <t>DD 531 Game Design</t>
-  </si>
-  <si>
-    <t>MDes 4 Timetable</t>
-  </si>
-  <si>
-    <t>Exhibition</t>
-  </si>
-  <si>
-    <t>DD 510</t>
-  </si>
-  <si>
-    <t>DD 605 Thesis Project (Phae II)</t>
-  </si>
-  <si>
-    <t>DD 512</t>
-  </si>
-  <si>
-    <t>DD 522</t>
-  </si>
-  <si>
-    <t>5, 7, 13</t>
-  </si>
-  <si>
-    <t>DD 522 Furniture and Future</t>
-  </si>
-  <si>
-    <t>DD 512 New Media Studies</t>
+    <t xml:space="preserve">Faculty Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - 8:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - 9:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - 10:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - 11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - 12:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 1:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - 2:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - 3:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - 4:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - 5:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 497 (2, 15, 16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdes 4 Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 521 (1, 7, 8, 9, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSI Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdes 1 Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 413 (4, 8, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 507 (1, 2, 6, 9, 16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 522 (5, 7, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdes 2 Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 505 (4, 8, 13, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 512 (3, 5, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 216 (1, 2, 7, 8, 11, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdes 2 Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 320M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdes 3 Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 516 (4, 8, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomics Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 311 (7, 11, 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 112 (3, 6, 9, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminar Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 315 (4, 8, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 509 (7, 11, 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 212 (3, 5, 9, 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 220M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 510 (4, 8, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 312 (1, 2, 6, 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 111 (1, 2, 5, 8, 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 214 (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 113 (4, 7, 10, 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 514 (3, 5, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 316 (3, 5, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 215 (4, 10, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbreviations used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debkumar Chakrabarti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - 5 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradeep Yammiyavar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - 12 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi Mokashi Punekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - 19 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A K Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 - 26 Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utpal Barua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Jan - 2 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avinash Shende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - 9 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manoj Majhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - 17 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mriganka Madhukaillya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - 23 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shareka Iqbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midsem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyur Sorathia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - 9 Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sougata Karmakar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - 17 Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uday Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - 23 Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharmistha Banerjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Mar - 1 Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charu Monga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - 6 Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - 13 Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swati Pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - 20 Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pankaj Upadhyay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - 27 Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheetal Madhav Gokhale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endsem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Shrivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratul Kalita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supradip Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urmi Ravindra Salve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debayan Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhileswar Baruah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDes 2 Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME 101 (T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Mar - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Jan - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prayukti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midsem (24 Feb - 4 Mar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endsem (29 Apr, 5 May)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departmental Courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per LTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 5, 8, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 111 Form, Order and Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 6, 9, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 112 Principles of Visual Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 7, 10, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 113 Visualization and Illustrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDes 4 Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - 10 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 5, 9, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 211 User Research Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 212 Visual Narratives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 10, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 213 Art and Aesthetics in Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 7, 8, 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD + SHRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD214 Design Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ PU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 215 Cognitive Ergonomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* An extra class on Saturday, 10th Feb will be needed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 216 Design Project I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete the number of hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 220 M Introduction to Ergonomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDes 6 Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 11, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 311 Applied Ergonomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 6, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 312 Design Project II ( Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach to Design)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,8,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 313 Art, Design and Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 316/ 514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 5, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 314 Animation Fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 315 Design Studio- V (Tangible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 320M Product Planning and Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departmental Elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 316 Instructional Design and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 514 Colloborative Design Methods for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Product Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDes 8 Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module/ DD 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 411 Design Management and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 15, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 7, 8, 9, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMP + SMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 497 Design Exhibition Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ AVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 413/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 8, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 499 Design Project- IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB + DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510/ 516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 413 Design Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 510 Creativity, Innovation and Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 516 Digital Human Modelling and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation in Product Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMP, SB,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 521 System Design for Sustainability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 602 System Analysis and Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD + PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDes 2 Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 8, 13, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 505 Form Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 6, 9, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 506 Graphic Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB + UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 507 Design Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 509 Interaction Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 531 Game Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDes 4 Timetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 605 Thesis Project (Phae II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 7, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 522 Furniture and Future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD 512 New Media Studies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="($#,##0_);($#,##0)"/>
-    <numFmt numFmtId="6" formatCode="($#,##0_);[Red]($#,##0)"/>
-    <numFmt numFmtId="7" formatCode="($#,##0.00_);($#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="($#,##0.00_);[Red]($#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_($* #,##0_);_($* (#,##0);_($* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
-      <color indexed="0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -843,14 +862,14 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -858,1202 +877,833 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="3" width="5.28571428571429" customWidth="1"/>
-    <col min="4" max="5" width="15.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="5.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
-    <col min="10" max="11" width="5.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6" ht="12.75">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:6" ht="12.75">
-      <c r="F2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="12.75">
-      <c r="B3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="9:9" ht="12.75">
-      <c r="I7" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="12.75">
-      <c r="B10" s="2" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="8:8" ht="12.75">
-      <c r="H14" s="2" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="12.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="12.75">
-      <c r="F17" s="2" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="12.75">
-      <c r="B18" s="2" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12.75">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="12.75">
-      <c r="F24" s="2" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="12.75">
-      <c r="B25" s="2" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.75">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="12.75">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.75">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.75">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="12.75">
-      <c r="F31" s="2" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="12.75">
-      <c r="B32" s="2" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="9:9" ht="12.75">
-      <c r="I36" s="2" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.75">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="12.75">
-      <c r="B39" s="2" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="12.75">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="4:4" ht="12.75">
-      <c r="D42" s="2" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="8:8" ht="12.75">
-      <c r="H44" s="2" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.75">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="6:6" ht="12.75">
-      <c r="F47" s="2" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="12.75">
-      <c r="B48" s="2" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="2" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75">
-      <c r="A50" s="2" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="2" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="9:9" ht="12.75">
-      <c r="I52" s="2" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="12.75">
-      <c r="B55" s="2" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75">
-      <c r="A56" s="2" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75">
-      <c r="A57" s="2" t="s">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="12.75">
-      <c r="A58" s="2" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75">
-      <c r="A59" s="2" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75">
-      <c r="A60" s="2" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="12.75">
-      <c r="B61" s="2" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="7:7" ht="12.75">
-      <c r="G62" s="3">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="8.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="28.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" ht="12.75">
-      <c r="E1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2085,7 +1735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2096,27 +1746,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:4" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="9:9" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +1774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +1782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
@@ -2140,7 +1790,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2160,7 +1810,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="12.75">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="2" t="s">
         <v>138</v>
       </c>
@@ -2168,226 +1818,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="7:7" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="12.75">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>145</v>
       </c>
@@ -2395,7 +2045,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>138</v>
       </c>
@@ -2403,7 +2053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>148</v>
       </c>
@@ -2420,7 +2070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
         <v>152</v>
       </c>
@@ -2428,14 +2078,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2448,14 +2098,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="2" t="n">
         <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2471,14 +2121,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2491,21 +2141,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="2" t="n">
         <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="2" t="s">
         <v>202</v>
       </c>
@@ -2516,7 +2166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:10" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="2" t="s">
         <v>244</v>
       </c>
@@ -2527,12 +2177,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="9:10" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="2" t="s">
         <v>71</v>
       </c>
@@ -2540,12 +2190,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="6:10" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2" t="s">
         <v>245</v>
       </c>
@@ -2557,41 +2207,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="28.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" ht="12.75">
-      <c r="E1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2623,7 +2281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2631,7 +2289,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2639,7 +2297,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2647,17 +2305,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="9:9" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2665,7 +2323,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="2" t="s">
         <v>135</v>
       </c>
@@ -2673,7 +2331,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -2693,7 +2351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
@@ -2701,226 +2359,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="7:7" ht="12.75">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="12.75">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="2">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
         <v>145</v>
       </c>
@@ -2928,7 +2586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>138</v>
       </c>
@@ -2936,7 +2594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -2953,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
         <v>152</v>
       </c>
@@ -2961,14 +2619,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2984,28 +2642,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3021,14 +2679,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3044,12 +2702,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="9:10" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3057,17 +2715,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="9:9" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I35" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="6:10" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="2" t="s">
         <v>229</v>
       </c>
@@ -3075,17 +2733,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="9:9" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="9:10" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I39" s="2" t="s">
         <v>231</v>
       </c>
@@ -3093,12 +2751,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="6:10" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="2" t="s">
         <v>254</v>
       </c>
@@ -3110,49 +2768,57 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="5.28571428571429" customWidth="1"/>
-    <col min="3" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="7.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="6.57142857142857" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.5714285714286" customWidth="1"/>
-    <col min="10" max="11" width="5.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="4:4" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3160,17 +2826,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="8:8" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3178,12 +2844,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="6:6" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3218,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +2895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3240,7 +2906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3251,12 +2917,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="12.75">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3267,12 +2933,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="6:6" ht="12.75">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3307,7 +2973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +2981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +2989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +3000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -3345,7 +3011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3353,7 +3019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="12.75">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -3388,7 +3054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3396,12 +3062,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -3412,12 +3078,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3425,12 +3091,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -3465,7 +3131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -3473,7 +3139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -3481,7 +3147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -3492,17 +3158,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="9:9" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3510,7 +3176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3545,22 +3211,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -3568,17 +3234,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="9:9" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3586,12 +3252,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="12.75">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="12.75">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
@@ -3626,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.75">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3640,27 +3306,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.75">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="12.75">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
@@ -3695,7 +3361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -3706,7 +3372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>15</v>
       </c>
@@ -3714,7 +3380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.75">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -3725,7 +3391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -3733,7 +3399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
@@ -3744,12 +3410,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="6:6" ht="12.75">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="12.75">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
@@ -3784,22 +3450,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="4:4" ht="12.75">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="12.75">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -3807,56 +3473,64 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="9:9" ht="12.75">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I63" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="7:7" ht="12.75">
-      <c r="G64" s="3">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="3" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="5.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="5" width="15.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="7.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="5.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="13.7142857142857" customWidth="1"/>
-    <col min="10" max="11" width="5.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9" ht="12.75">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -3864,7 +3538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3899,7 +3573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3910,7 +3584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3921,7 +3595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3932,12 +3606,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3948,12 +3622,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="6:6" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -3988,7 +3662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -3996,7 +3670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +3678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -4015,17 +3689,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="8:8" ht="12.75">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +3707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +3742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4079,32 +3753,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.75">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.75">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4139,7 +3813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -4147,7 +3821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -4155,7 +3829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -4166,17 +3840,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="9:9" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -4184,7 +3858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
@@ -4219,7 +3893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -4227,7 +3901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -4235,7 +3909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -4246,7 +3920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -4257,7 +3931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -4265,12 +3939,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
@@ -4305,7 +3979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
@@ -4313,12 +3987,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -4329,12 +4003,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -4342,12 +4016,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="6:6" ht="12.75">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="12.75">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -4382,7 +4056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -4390,7 +4064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -4398,7 +4072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="12.75">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -4409,17 +4083,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="9:9" ht="12.75">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I50" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
@@ -4427,7 +4101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="12.75">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -4462,22 +4136,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="4:4" ht="12.75">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.75">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -4485,17 +4159,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="9:9" ht="12.75">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I58" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
@@ -4503,46 +4177,54 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="6:6" ht="12.75">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="7:7" ht="12.75">
-      <c r="G62" s="3">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="3" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="5.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
-    <col min="4" max="5" width="15.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="7.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="5.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="5.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="10.4285714285714" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12.75">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4577,7 +4259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4588,7 +4270,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4596,7 +4278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -4607,7 +4289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -4615,7 +4297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -4626,7 +4308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -4661,7 +4343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4669,7 +4351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4677,7 +4359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +4370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4707,12 +4389,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="6:6" ht="12.75">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="12.75">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4747,7 +4429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -4758,7 +4440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4766,7 +4448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4777,7 +4459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -4785,7 +4467,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -4796,12 +4478,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="12.75">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="12.75">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
@@ -4836,7 +4518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.75">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4847,17 +4529,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -4868,17 +4550,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -4913,22 +4595,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -4936,17 +4618,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="9:9" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -4954,7 +4636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4989,7 +4671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -4997,7 +4679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -5005,7 +4687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -5016,17 +4698,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="8:8" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -5034,7 +4716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="12.75">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -5069,7 +4751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -5077,7 +4759,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -5085,7 +4767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.75">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -5096,7 +4778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -5107,7 +4789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -5115,12 +4797,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="12.75">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="12.75">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
@@ -5155,27 +4837,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.75">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
@@ -5186,12 +4868,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="6:6" ht="12.75">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="12.75">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
@@ -5226,7 +4908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -5234,7 +4916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>15</v>
       </c>
@@ -5242,39 +4924,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="7:7" ht="12.75">
-      <c r="G60" s="3">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="3" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
-    <col min="3" max="5" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
-    <col min="10" max="11" width="5.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="9.71428571428571" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -5285,7 +4975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -5296,7 +4986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -5304,7 +4994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5339,22 +5029,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="4:4" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -5362,17 +5052,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="9:9" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -5380,12 +5070,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="6:6" ht="12.75">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="12.75">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -5420,7 +5110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5428,7 +5118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -5436,7 +5126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -5447,7 +5137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -5458,7 +5148,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -5466,12 +5156,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="12.75">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -5506,7 +5196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.75">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -5517,7 +5207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.75">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -5528,22 +5218,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>81</v>
       </c>
@@ -5554,119 +5244,119 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -5677,119 +5367,119 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="n">
         <v>16</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
@@ -5800,7 +5490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -5808,7 +5498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -5816,7 +5506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
@@ -5824,7 +5514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="12.75">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -5832,7 +5522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
@@ -5840,7 +5530,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>78</v>
       </c>
@@ -5848,47 +5538,55 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="7:7" ht="12.75">
-      <c r="G51" s="3">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="8.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="6.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="25.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6" ht="12.75">
-      <c r="F1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +5618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5934,7 +5632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5951,7 +5649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -5965,7 +5663,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -5979,7 +5677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -5993,7 +5691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="2" t="s">
         <v>135</v>
       </c>
@@ -6001,7 +5699,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
@@ -6021,7 +5719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
         <v>138</v>
       </c>
@@ -6029,226 +5727,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="2" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="7:7" ht="12.75">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="7:7" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="12.75">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
         <v>145</v>
       </c>
@@ -6256,7 +5954,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
         <v>138</v>
       </c>
@@ -6264,7 +5962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
@@ -6281,7 +5979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>152</v>
       </c>
@@ -6289,14 +5987,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="2" t="n">
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6309,14 +6007,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6332,14 +6030,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6353,41 +6051,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="6.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="26.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.71428571428571" customWidth="1"/>
-    <col min="10" max="10" width="10.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6" ht="12.75">
-      <c r="F1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6419,7 +6125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6433,7 +6139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6444,7 +6150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -6458,7 +6164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -6472,7 +6178,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -6486,7 +6192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="2" t="s">
         <v>135</v>
       </c>
@@ -6494,7 +6200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
@@ -6514,7 +6220,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
         <v>138</v>
       </c>
@@ -6522,226 +6228,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="2" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="7:7" ht="12.75">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="7:7" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="12.75">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
         <v>145</v>
       </c>
@@ -6749,7 +6455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
         <v>138</v>
       </c>
@@ -6757,7 +6463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
@@ -6774,7 +6480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>152</v>
       </c>
@@ -6782,14 +6488,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="2" t="n">
         <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6802,14 +6508,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6822,14 +6528,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6842,7 +6548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="2" t="s">
         <v>175</v>
       </c>
@@ -6850,14 +6556,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -6867,15 +6573,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="12.75">
-      <c r="D32" s="2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="2" t="n">
         <v>15</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="2" t="s">
         <v>180</v>
       </c>
@@ -6883,7 +6589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>181</v>
       </c>
@@ -6894,12 +6600,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="2" t="s">
         <v>184</v>
       </c>
@@ -6908,41 +6614,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="7.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="6.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="28.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6" ht="12.75">
-      <c r="F1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +6688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6988,17 +6702,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:4" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -7006,17 +6720,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="9:9" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -7027,7 +6741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
@@ -7035,7 +6749,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -7055,7 +6769,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="12.75">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="2" t="s">
         <v>138</v>
       </c>
@@ -7063,226 +6777,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="7:7" ht="12.75">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="12.75">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="12.75">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>145</v>
       </c>
@@ -7290,7 +7004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>138</v>
       </c>
@@ -7298,7 +7012,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>148</v>
       </c>
@@ -7315,7 +7029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
         <v>152</v>
       </c>
@@ -7323,14 +7037,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -7343,7 +7057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="2" t="s">
         <v>189</v>
       </c>
@@ -7351,33 +7065,33 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>84</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="2" t="n">
         <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -7390,19 +7104,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="10:10" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="2" t="n">
         <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -7415,22 +7129,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="9:9" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="6:9" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="2" t="s">
         <v>201</v>
       </c>
@@ -7438,7 +7152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="6:10" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="2" t="s">
         <v>202</v>
       </c>
@@ -7449,12 +7163,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="9:10" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I42" s="2" t="s">
         <v>74</v>
       </c>
@@ -7462,17 +7176,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="12.75">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="12.75">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="9:10" ht="12.75">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="2" t="s">
         <v>71</v>
       </c>
@@ -7480,47 +7194,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="12.75">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="2" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00334821428571" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="6.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="28.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="8.71428571428571" customWidth="1"/>
-    <col min="10" max="10" width="11.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.01"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6" ht="12.75">
-      <c r="F1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="12.75">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7552,7 +7274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -7563,7 +7285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7574,7 +7296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -7585,12 +7307,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="9:9" ht="12.75">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -7598,7 +7320,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -7606,7 +7328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="2" t="s">
         <v>135</v>
       </c>
@@ -7614,7 +7336,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -7634,7 +7356,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="12.75">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
@@ -7642,226 +7364,226 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="7:7" ht="12.75">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="12.75">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="12.75">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="12.75">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="2">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="12.75">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
         <v>145</v>
       </c>
@@ -7869,7 +7591,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="12.75">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>138</v>
       </c>
@@ -7877,7 +7599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -7894,7 +7616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="12.75">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
         <v>152</v>
       </c>
@@ -7902,19 +7624,19 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="12.75">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -7924,12 +7646,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="12.75">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="12.75">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="2" t="s">
         <v>213</v>
       </c>
@@ -7937,14 +7659,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="2" t="n">
         <v>56</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -7954,21 +7676,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="9:9" ht="12.75">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="12.75">
-      <c r="B35" s="2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -7981,12 +7703,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="6:10" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="2" t="s">
         <v>202</v>
       </c>
@@ -7997,7 +7719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="6:10" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2" t="s">
         <v>223</v>
       </c>
@@ -8008,12 +7730,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="6:6" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="9:10" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I40" s="2" t="s">
         <v>60</v>
       </c>
@@ -8021,17 +7743,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="9:10" ht="12.75">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I43" s="2" t="s">
         <v>44</v>
       </c>
@@ -8039,17 +7761,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="12.75">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="9:9" ht="12.75">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="6:10" ht="12.75">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="2" t="s">
         <v>229</v>
       </c>
@@ -8057,17 +7779,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="9:9" ht="12.75">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I47" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="12.75">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="9:10" ht="12.75">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I49" s="2" t="s">
         <v>231</v>
       </c>
@@ -8075,14 +7797,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="12.75">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="2" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>